--- a/standards.xlsx
+++ b/standards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pramudithara\Desktop\AI Projects\machine_audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0D6476F-5E23-4FBE-BF70-2DF62B52005B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA60B463-9110-44D1-BDD8-D343521C7293}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CADF92FC-3046-4A23-801B-BAF89DFEAD5C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="60">
   <si>
     <t>Style Number</t>
   </si>
@@ -69,64 +69,158 @@
     <t>RPM</t>
   </si>
   <si>
-    <t>ST123</t>
-  </si>
-  <si>
-    <t>Op1</t>
-  </si>
-  <si>
-    <t>Op2</t>
-  </si>
-  <si>
-    <t>Op3</t>
-  </si>
-  <si>
-    <t>Op4</t>
-  </si>
-  <si>
     <t>OL</t>
   </si>
   <si>
     <t>ROL</t>
   </si>
   <si>
-    <t>SNLS</t>
-  </si>
-  <si>
-    <t>BH</t>
-  </si>
-  <si>
     <t>OL 40</t>
   </si>
   <si>
     <t>P 58</t>
   </si>
   <si>
-    <t>OL 1</t>
-  </si>
-  <si>
-    <t>S 1</t>
-  </si>
-  <si>
-    <t>OL 2</t>
-  </si>
-  <si>
-    <t>S 2</t>
-  </si>
-  <si>
-    <t>OL 3</t>
-  </si>
-  <si>
-    <t>S 3</t>
-  </si>
-  <si>
-    <t>OL 4</t>
-  </si>
-  <si>
-    <t>S 4</t>
-  </si>
-  <si>
-    <t>OL 5</t>
+    <t>EDGE O/L</t>
+  </si>
+  <si>
+    <t>JOIN SIDE SEAM MESH PANEL</t>
+  </si>
+  <si>
+    <t>JOIN GUSSET SEAM MESH PANEL</t>
+  </si>
+  <si>
+    <t>PRE TACK</t>
+  </si>
+  <si>
+    <t>ATTACH RUBBER LEG</t>
+  </si>
+  <si>
+    <t>SECURE STITCH</t>
+  </si>
+  <si>
+    <t>JOIN PANELS [FULL MESH OPTION ONLY USE]</t>
+  </si>
+  <si>
+    <t>JOIN PANELS  5 O/L POKET SIDE</t>
+  </si>
+  <si>
+    <t>JOIN POCKET PANELS</t>
+  </si>
+  <si>
+    <t>ATTACH SLANT CUT POCKET</t>
+  </si>
+  <si>
+    <t>TOP STITCH POKET OUTLINE</t>
+  </si>
+  <si>
+    <t>JOIN PANELS  5 O/L POKET MESH BAG</t>
+  </si>
+  <si>
+    <t>JOIN PANEL  5 O/L  SIDE SEAM</t>
+  </si>
+  <si>
+    <t>TOP STITCH SIDE SEAM</t>
+  </si>
+  <si>
+    <t>TOP STITCH</t>
+  </si>
+  <si>
+    <t>JOIN FRONT RISE</t>
+  </si>
+  <si>
+    <t>BAR TACK</t>
+  </si>
+  <si>
+    <t>JOIN  PANELS</t>
+  </si>
+  <si>
+    <t>MAKE BUTTON HOLE</t>
+  </si>
+  <si>
+    <t>ELASTIC BUTT</t>
+  </si>
+  <si>
+    <t>PRE TACK ELASTIC BAND</t>
+  </si>
+  <si>
+    <t>TOP STITCH WAIST</t>
+  </si>
+  <si>
+    <t>MAKE SNAP HOLE</t>
+  </si>
+  <si>
+    <t>ATTACH SNAP BUTTON</t>
+  </si>
+  <si>
+    <t>JOIN WAIST BRIF ARROUD</t>
+  </si>
+  <si>
+    <t>PRE TACK LABEL</t>
+  </si>
+  <si>
+    <t>2OL</t>
+  </si>
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>5OL</t>
+  </si>
+  <si>
+    <t>PATTRAN
+SEVER</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>F/Arm</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>BUTTON HOLE</t>
+  </si>
+  <si>
+    <t>KANSAI</t>
+  </si>
+  <si>
+    <t>SNAP
+BUTTON</t>
+  </si>
+  <si>
+    <t>SPECIAL</t>
+  </si>
+  <si>
+    <t>5 O/L
+FOOT</t>
+  </si>
+  <si>
+    <t>D  14R</t>
+  </si>
+  <si>
+    <t>5 O/L FOOT</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>SPECAL
+FOOT</t>
+  </si>
+  <si>
+    <t>SPCIAL
+FOOT</t>
+  </si>
+  <si>
+    <t>2500
+800</t>
+  </si>
+  <si>
+    <t>4000
+2000</t>
   </si>
 </sst>
 </file>
@@ -478,15 +572,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6876A3BE-DBA1-487B-ADD0-D573A4FC03AA}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -525,127 +621,1425 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>812433</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>812433</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>812433</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>812433</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>812433</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>812433</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>812433</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>812433</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>812433</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>812433</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>812433</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>812433</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>812433</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>812433</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>812433</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>812433</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>812433</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>812433</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>812433</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>812433</v>
+      </c>
+      <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="K2">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>812433</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>812433</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>812433</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>812433</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>812433</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>812433</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>812433</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>812433</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>812433</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>812433</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>812433</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>812433</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>812433</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>812433</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D35" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>812433</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>812433</v>
+      </c>
+      <c r="B37" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>812433</v>
+      </c>
+      <c r="B38" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5">
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>812433</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>812433</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>812433</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
         <v>4000</v>
       </c>
     </row>
@@ -655,6 +2049,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005262DB9541ED654A9577F75216E97045" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="150f70e4833e6acca53af15f108a89f6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63548faf-141e-4845-a21a-83814c511007" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97e9ccab3101d9e179e7cadf41f60dab" ns3:_="">
     <xsd:import namespace="63548faf-141e-4845-a21a-83814c511007"/>
@@ -834,15 +2237,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -852,6 +2246,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95914727-5123-46DE-8EF3-F632BB92258F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E860F4BE-353C-4427-819A-F757BC7A4F05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -865,14 +2267,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95914727-5123-46DE-8EF3-F632BB92258F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/standards.xlsx
+++ b/standards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pramudithara\Desktop\AI Projects\machine_audit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhammikas\OneDrive - Linea Aqua (Private) Limited\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA60B463-9110-44D1-BDD8-D343521C7293}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B84E7-3913-47F3-B07A-5530969A7E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CADF92FC-3046-4A23-801B-BAF89DFEAD5C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CADF92FC-3046-4A23-801B-BAF89DFEAD5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="77">
   <si>
     <t>Style Number</t>
   </si>
@@ -221,16 +221,73 @@
   <si>
     <t>4000
 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8-67G01</t>
+  </si>
+  <si>
+    <t>SLEEVE HEM</t>
+  </si>
+  <si>
+    <t>JOIN SLEEVE TO BODY</t>
+  </si>
+  <si>
+    <t>ULTRASONIC TACK</t>
+  </si>
+  <si>
+    <t>JOIN SIDE SEAM</t>
+  </si>
+  <si>
+    <t>JOIN SEAM</t>
+  </si>
+  <si>
+    <t>JOIN NECK BAND TO THE BODY</t>
+  </si>
+  <si>
+    <t>BOTTOM HEM</t>
+  </si>
+  <si>
+    <t>BOTTOM DETA</t>
+  </si>
+  <si>
+    <t>JOIN FRONT &amp; BACK RISE</t>
+  </si>
+  <si>
+    <t>JOIN IN SEAM</t>
+  </si>
+  <si>
+    <t>ATTACH RO\L  WAIST</t>
+  </si>
+  <si>
+    <t>ATTACH RO\L  LEG</t>
+  </si>
+  <si>
+    <t>TOP STITCH HEM LEG</t>
+  </si>
+  <si>
+    <t>H/C</t>
+  </si>
+  <si>
+    <t>C 66</t>
+  </si>
+  <si>
+    <t>CS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -256,8 +313,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -276,9 +334,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -316,7 +374,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -422,7 +480,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -564,7 +622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -572,20 +630,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6876A3BE-DBA1-487B-ADD0-D573A4FC03AA}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>812433</v>
       </c>
@@ -655,7 +713,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>812433</v>
       </c>
@@ -690,7 +748,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>812433</v>
       </c>
@@ -725,7 +783,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>812433</v>
       </c>
@@ -760,7 +818,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>812433</v>
       </c>
@@ -795,7 +853,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>812433</v>
       </c>
@@ -830,7 +888,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>812433</v>
       </c>
@@ -865,7 +923,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>812433</v>
       </c>
@@ -900,7 +958,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>812433</v>
       </c>
@@ -935,7 +993,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>812433</v>
       </c>
@@ -970,7 +1028,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>812433</v>
       </c>
@@ -1005,7 +1063,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>812433</v>
       </c>
@@ -1040,7 +1098,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>812433</v>
       </c>
@@ -1075,7 +1133,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>812433</v>
       </c>
@@ -1110,7 +1168,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>812433</v>
       </c>
@@ -1145,7 +1203,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>812433</v>
       </c>
@@ -1180,7 +1238,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>812433</v>
       </c>
@@ -1215,7 +1273,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>812433</v>
       </c>
@@ -1250,7 +1308,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>812433</v>
       </c>
@@ -1285,7 +1343,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>812433</v>
       </c>
@@ -1320,7 +1378,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>812433</v>
       </c>
@@ -1355,7 +1413,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>812433</v>
       </c>
@@ -1390,7 +1448,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>812433</v>
       </c>
@@ -1425,7 +1483,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>812433</v>
       </c>
@@ -1460,7 +1518,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>812433</v>
       </c>
@@ -1495,7 +1553,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>812433</v>
       </c>
@@ -1530,7 +1588,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>812433</v>
       </c>
@@ -1565,7 +1623,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>812433</v>
       </c>
@@ -1600,7 +1658,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>812433</v>
       </c>
@@ -1635,7 +1693,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>812433</v>
       </c>
@@ -1670,7 +1728,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>812433</v>
       </c>
@@ -1705,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>812433</v>
       </c>
@@ -1740,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>812433</v>
       </c>
@@ -1775,7 +1833,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>812433</v>
       </c>
@@ -1810,7 +1868,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>812433</v>
       </c>
@@ -1845,7 +1903,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>812433</v>
       </c>
@@ -1880,7 +1938,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>812433</v>
       </c>
@@ -1915,7 +1973,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>812433</v>
       </c>
@@ -1950,7 +2008,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>812433</v>
       </c>
@@ -1985,7 +2043,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>812433</v>
       </c>
@@ -2020,7 +2078,10 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>812433</v>
+      </c>
       <c r="E42">
         <v>0</v>
       </c>
@@ -2043,21 +2104,387 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+      <c r="K43" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" t="s">
+        <v>75</v>
+      </c>
+      <c r="K51" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>55</v>
+      </c>
+      <c r="K58" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" t="s">
+        <v>75</v>
+      </c>
+      <c r="K61" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>55</v>
+      </c>
+      <c r="K62" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" t="s">
+        <v>75</v>
+      </c>
+      <c r="K63" s="1">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005262DB9541ED654A9577F75216E97045" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="150f70e4833e6acca53af15f108a89f6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63548faf-141e-4845-a21a-83814c511007" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97e9ccab3101d9e179e7cadf41f60dab" ns3:_="">
     <xsd:import namespace="63548faf-141e-4845-a21a-83814c511007"/>
@@ -2237,6 +2664,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2246,14 +2682,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95914727-5123-46DE-8EF3-F632BB92258F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E860F4BE-353C-4427-819A-F757BC7A4F05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2267,6 +2695,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95914727-5123-46DE-8EF3-F632BB92258F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/standards.xlsx
+++ b/standards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhammikas\OneDrive - Linea Aqua (Private) Limited\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1B84E7-3913-47F3-B07A-5530969A7E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E596083E-E5F5-4D33-80A7-FF0760955271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CADF92FC-3046-4A23-801B-BAF89DFEAD5C}"/>
   </bookViews>
@@ -223,9 +223,6 @@
 2000</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8-67G01</t>
-  </si>
-  <si>
     <t>SLEEVE HEM</t>
   </si>
   <si>
@@ -272,6 +269,9 @@
   </si>
   <si>
     <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 867G01</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A43" sqref="A43:A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,16 +2106,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
         <v>60</v>
       </c>
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
       <c r="C43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" t="s">
         <v>74</v>
-      </c>
-      <c r="D43" t="s">
-        <v>75</v>
       </c>
       <c r="K43" s="1">
         <v>4500</v>
@@ -2123,10 +2123,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2174,10 +2174,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -2242,16 +2242,16 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" t="s">
         <v>74</v>
-      </c>
-      <c r="D51" t="s">
-        <v>75</v>
       </c>
       <c r="K51" s="1">
         <v>4500</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
         <v>31</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
         <v>31</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2310,10 +2310,10 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
@@ -2361,10 +2361,10 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
@@ -2412,16 +2412,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
         <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K61" s="1">
         <v>4500</v>
@@ -2429,10 +2429,10 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -2446,16 +2446,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K63" s="1">
         <v>4500</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B64" t="s">
         <v>31</v>

--- a/standards.xlsx
+++ b/standards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhammikas\OneDrive - Linea Aqua (Private) Limited\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E596083E-E5F5-4D33-80A7-FF0760955271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7A31D0-F874-464E-9726-628BA031CA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CADF92FC-3046-4A23-801B-BAF89DFEAD5C}"/>
   </bookViews>
@@ -313,9 +313,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,7 +634,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A64"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,7 +2106,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B43" t="s">
@@ -2122,7 +2123,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B44" t="s">
@@ -2139,7 +2140,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B45" t="s">
@@ -2156,7 +2157,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B46" t="s">
@@ -2173,7 +2174,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B47" t="s">
@@ -2190,7 +2191,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B48" t="s">
@@ -2207,7 +2208,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B49" t="s">
@@ -2224,7 +2225,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B50" t="s">
@@ -2241,7 +2242,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B51" t="s">
@@ -2258,7 +2259,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B52" t="s">
@@ -2275,7 +2276,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B53" t="s">
@@ -2292,7 +2293,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B54">
@@ -2309,7 +2310,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B55" t="s">
@@ -2326,7 +2327,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B56" t="s">
@@ -2343,7 +2344,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B57" t="s">
@@ -2360,7 +2361,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B58" t="s">
@@ -2377,7 +2378,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B59" t="s">
@@ -2394,7 +2395,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B60" t="s">
@@ -2411,7 +2412,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B61" t="s">
@@ -2428,7 +2429,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B62" t="s">
@@ -2445,7 +2446,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B63" t="s">
@@ -2462,7 +2463,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B64" t="s">

--- a/standards.xlsx
+++ b/standards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhammikas\OneDrive - Linea Aqua (Private) Limited\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7A31D0-F874-464E-9726-628BA031CA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301C19D6-77CD-411F-BC8C-9A4DC1A51B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CADF92FC-3046-4A23-801B-BAF89DFEAD5C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>Style Number</t>
   </si>
@@ -272,6 +272,51 @@
   </si>
   <si>
     <t xml:space="preserve"> 867G01</t>
+  </si>
+  <si>
+    <t>JOIN BODY AND LINER</t>
+  </si>
+  <si>
+    <t>TAPING ATTACH  1 step</t>
+  </si>
+  <si>
+    <t>TAPING ATTACH 2 step</t>
+  </si>
+  <si>
+    <t>JOIN CROTCH SEAM BODY PANEL</t>
+  </si>
+  <si>
+    <t>JOIN CROTCH SEAM LINER PANEL TOGETHER</t>
+  </si>
+  <si>
+    <t>ATTACH RO\L LEG</t>
+  </si>
+  <si>
+    <t>TOP STITCH LEG</t>
+  </si>
+  <si>
+    <t>ATTACH RO\L WAIST</t>
+  </si>
+  <si>
+    <t>MAKE BUTTON HOLE AT CF</t>
+  </si>
+  <si>
+    <t>Ultrasonic Tack</t>
+  </si>
+  <si>
+    <t>TACK LABELS</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>SPCIAL FOOT</t>
+  </si>
+  <si>
+    <t>WAIST FOOT</t>
   </si>
 </sst>
 </file>
@@ -313,10 +358,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6876A3BE-DBA1-487B-ADD0-D573A4FC03AA}">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,6 +2166,24 @@
       <c r="D43" t="s">
         <v>74</v>
       </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
       <c r="K43" s="1">
         <v>4500</v>
       </c>
@@ -2135,6 +2201,24 @@
       <c r="D44" t="s">
         <v>13</v>
       </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
       <c r="K44" s="1">
         <v>4500</v>
       </c>
@@ -2152,6 +2236,24 @@
       <c r="D45" t="s">
         <v>14</v>
       </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
       <c r="K45" s="1">
         <v>4500</v>
       </c>
@@ -2169,6 +2271,24 @@
       <c r="D46">
         <v>0</v>
       </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
       <c r="K46" s="1">
         <v>0</v>
       </c>
@@ -2186,6 +2306,24 @@
       <c r="D47" t="s">
         <v>13</v>
       </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
       <c r="K47" s="1">
         <v>4500</v>
       </c>
@@ -2203,6 +2341,24 @@
       <c r="D48" t="s">
         <v>13</v>
       </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
       <c r="K48" s="1">
         <v>4500</v>
       </c>
@@ -2220,6 +2376,24 @@
       <c r="D49" t="s">
         <v>14</v>
       </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
       <c r="K49" s="1">
         <v>4500</v>
       </c>
@@ -2237,6 +2411,24 @@
       <c r="D50" t="s">
         <v>13</v>
       </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
       <c r="K50" s="1">
         <v>4000</v>
       </c>
@@ -2254,6 +2446,24 @@
       <c r="D51" t="s">
         <v>74</v>
       </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
       <c r="K51" s="1">
         <v>4500</v>
       </c>
@@ -2271,6 +2481,24 @@
       <c r="D52">
         <v>0</v>
       </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
       <c r="K52" s="1">
         <v>3000</v>
       </c>
@@ -2288,6 +2516,24 @@
       <c r="D53">
         <v>0</v>
       </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
       <c r="K53" s="1">
         <v>3000</v>
       </c>
@@ -2305,6 +2551,24 @@
       <c r="D54">
         <v>0</v>
       </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
       <c r="K54" s="1">
         <v>0</v>
       </c>
@@ -2322,6 +2586,24 @@
       <c r="D55">
         <v>0</v>
       </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
       <c r="K55" s="1">
         <v>0</v>
       </c>
@@ -2339,6 +2621,24 @@
       <c r="D56" t="s">
         <v>13</v>
       </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
       <c r="K56" s="1">
         <v>4500</v>
       </c>
@@ -2356,6 +2656,24 @@
       <c r="D57" t="s">
         <v>13</v>
       </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
       <c r="K57" s="1">
         <v>4500</v>
       </c>
@@ -2373,6 +2691,24 @@
       <c r="D58" t="s">
         <v>55</v>
       </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
       <c r="K58" s="1">
         <v>4500</v>
       </c>
@@ -2390,6 +2726,24 @@
       <c r="D59">
         <v>0</v>
       </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
       <c r="K59" s="1">
         <v>0</v>
       </c>
@@ -2407,6 +2761,24 @@
       <c r="D60" t="s">
         <v>14</v>
       </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
       <c r="K60" s="1">
         <v>4500</v>
       </c>
@@ -2424,6 +2796,24 @@
       <c r="D61" t="s">
         <v>74</v>
       </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
       <c r="K61" s="1">
         <v>4500</v>
       </c>
@@ -2441,6 +2831,24 @@
       <c r="D62" t="s">
         <v>55</v>
       </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
       <c r="K62" s="1">
         <v>4500</v>
       </c>
@@ -2458,6 +2866,24 @@
       <c r="D63" t="s">
         <v>74</v>
       </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
       <c r="K63" s="1">
         <v>4500</v>
       </c>
@@ -2475,7 +2901,585 @@
       <c r="D64">
         <v>0</v>
       </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
       <c r="K64" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>8705970</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>8705970</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>8705970</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>8705970</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>8705970</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>8705970</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>8705970</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>8705970</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>8705970</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" t="s">
+        <v>74</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>8705970</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>8705970</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>8705970</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>8705970</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>8705970</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>8705970</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" t="s">
+        <v>74</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>8705970</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
         <v>3000</v>
       </c>
     </row>
@@ -2486,6 +3490,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005262DB9541ED654A9577F75216E97045" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="150f70e4833e6acca53af15f108a89f6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63548faf-141e-4845-a21a-83814c511007" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97e9ccab3101d9e179e7cadf41f60dab" ns3:_="">
     <xsd:import namespace="63548faf-141e-4845-a21a-83814c511007"/>
@@ -2665,15 +3678,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2683,6 +3687,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95914727-5123-46DE-8EF3-F632BB92258F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E860F4BE-353C-4427-819A-F757BC7A4F05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2696,14 +3708,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95914727-5123-46DE-8EF3-F632BB92258F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
